--- a/src/main/resources/poi/report_quality_qualityTraceability.xlsx
+++ b/src/main/resources/poi/report_quality_qualityTraceability.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gyhl_3.0\xinsoft-gyhl\src\main\resources\poi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFD05F7-234A-4B09-AC10-4B1D0B66CB4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3936AB-32C2-4642-990A-B023D526EB55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/poi/report_quality_qualityTraceability.xlsx
+++ b/src/main/resources/poi/report_quality_qualityTraceability.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gyhl_3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3936AB-32C2-4642-990A-B023D526EB55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952AEDEE-ECD1-4D38-98B2-9F8E88A329FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>规格型号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{{fe: list t.typeName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>t.time</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -112,6 +108,18 @@
   </si>
   <si>
     <t>t.sourceCode}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.typeName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>追溯方向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{fe: list t.way</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -511,89 +519,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18" customWidth="1"/>
-    <col min="3" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" style="1" customWidth="1"/>
-    <col min="7" max="11" width="18" style="1" customWidth="1"/>
+    <col min="1" max="3" width="18" customWidth="1"/>
+    <col min="4" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" style="1" customWidth="1"/>
+    <col min="8" max="12" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
